--- a/data/template/Custom1_workload_counts.xlsx
+++ b/data/template/Custom1_workload_counts.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E48358-31AD-4AD2-94D0-00579A255905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1EE2CF-2E18-478A-944C-8205A29785B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="按工作内容划分" sheetId="1" r:id="rId1"/>
+    <sheet name="按人员划分" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -448,4 +453,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE15C52-A871-4A58-8298-8DBA06E2C3CA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.399999999999999">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>